--- a/Code/Results/Cases/Case_1_240/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_240/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2739087112827718</v>
+        <v>0.1423809062965233</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.232445061531365</v>
+        <v>0.2851467616826824</v>
       </c>
       <c r="E2">
-        <v>0.5447276146580293</v>
+        <v>0.1372607365515108</v>
       </c>
       <c r="F2">
-        <v>8.833561359128851</v>
+        <v>6.825672395130994</v>
       </c>
       <c r="G2">
-        <v>0.0006055809210139861</v>
+        <v>0.002695213221253804</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3437529027074788</v>
+        <v>0.1367055720989043</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.25068569486987</v>
+        <v>6.549288000167593</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2375594666869034</v>
+        <v>0.1329604150238453</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9636311025110444</v>
+        <v>0.2560228835505711</v>
       </c>
       <c r="E3">
-        <v>0.4470353244880911</v>
+        <v>0.1193733527267895</v>
       </c>
       <c r="F3">
-        <v>6.838979126064856</v>
+        <v>6.847732267853075</v>
       </c>
       <c r="G3">
-        <v>0.000658698501324384</v>
+        <v>0.00271376776157433</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2877590069833076</v>
+        <v>0.1264069728587884</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.07121808381316</v>
+        <v>5.964698587850791</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2158888451091912</v>
+        <v>0.1272503147543489</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.8284659388356772</v>
+        <v>0.2385168469926953</v>
       </c>
       <c r="E4">
-        <v>0.3944255691811733</v>
+        <v>0.1084035697961028</v>
       </c>
       <c r="F4">
-        <v>5.912314674590704</v>
+        <v>6.872095838575831</v>
       </c>
       <c r="G4">
-        <v>0.0006880219509642794</v>
+        <v>0.002725658888421509</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2574664489063423</v>
+        <v>0.1201531893065777</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.34722393540227</v>
+        <v>5.607343347165113</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2071770232391401</v>
+        <v>0.1249420585963747</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.7780527651333671</v>
+        <v>0.2314715214307626</v>
       </c>
       <c r="E5">
-        <v>0.3741467683913555</v>
+        <v>0.1039352463805727</v>
       </c>
       <c r="F5">
-        <v>5.582090004444495</v>
+        <v>6.884682676537011</v>
       </c>
       <c r="G5">
-        <v>0.0006995044342344546</v>
+        <v>0.002730631112166133</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2457901086519456</v>
+        <v>0.1176215346582268</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.68099969655222</v>
+        <v>5.462076064808059</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2057367085853343</v>
+        <v>0.1245599018989338</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.7699104512873873</v>
+        <v>0.2303068244362976</v>
       </c>
       <c r="E6">
-        <v>0.3708364016745023</v>
+        <v>0.1031933644713874</v>
       </c>
       <c r="F6">
-        <v>5.529604247776433</v>
+        <v>6.886931505124608</v>
       </c>
       <c r="G6">
-        <v>0.0007013896799071003</v>
+        <v>0.002731464418329869</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2438845873629134</v>
+        <v>0.117202151867545</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.5721640129986</v>
+        <v>5.437975018746727</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2157709153736391</v>
+        <v>0.1272191092360941</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.8277696931797323</v>
+        <v>0.2384214806704961</v>
       </c>
       <c r="E7">
-        <v>0.3941480131497173</v>
+        <v>0.1083433022539495</v>
       </c>
       <c r="F7">
-        <v>5.907693867197793</v>
+        <v>6.872254905279163</v>
       </c>
       <c r="G7">
-        <v>0.0006881783740836683</v>
+        <v>0.002725725431888926</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2573066069102481</v>
+        <v>0.1201189793161603</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.33811118479392</v>
+        <v>5.605382824650832</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.261205999653555</v>
+        <v>0.139117342583873</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.131093334901834</v>
+        <v>0.2750230562874947</v>
       </c>
       <c r="E8">
-        <v>0.5089189218274655</v>
+        <v>0.1310895965230898</v>
       </c>
       <c r="F8">
-        <v>8.06020267166835</v>
+        <v>6.830995242097657</v>
       </c>
       <c r="G8">
-        <v>0.0006248883987205467</v>
+        <v>0.002701508037627576</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3232964433921666</v>
+        <v>0.1331397333637625</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.0891328145299</v>
+        <v>6.347367134067355</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.261205999653555</v>
+        <v>0.1630388474108599</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.131093334901834</v>
+        <v>0.3500705838918918</v>
       </c>
       <c r="E9">
-        <v>0.5089189218274655</v>
+        <v>0.1758660676599249</v>
       </c>
       <c r="F9">
-        <v>8.06020267166835</v>
+        <v>6.838833463057796</v>
       </c>
       <c r="G9">
-        <v>0.0006248883987205467</v>
+        <v>0.00265792094052208</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3232964433921666</v>
+        <v>0.1592612256124397</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.0891328145299</v>
+        <v>7.81700964078118</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.261205999653555</v>
+        <v>0.1809771585331532</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.131093334901834</v>
+        <v>0.4076235896185665</v>
       </c>
       <c r="E10">
-        <v>0.5089189218274655</v>
+        <v>0.2089689795170386</v>
       </c>
       <c r="F10">
-        <v>8.06020267166835</v>
+        <v>6.902906266646369</v>
       </c>
       <c r="G10">
-        <v>0.0006248883987205467</v>
+        <v>0.002628200780592222</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3232964433921666</v>
+        <v>0.1788673011249813</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.0891328145299</v>
+        <v>8.908795825016455</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.261205999653555</v>
+        <v>0.1892178160615998</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.131093334901834</v>
+        <v>0.4344284048614782</v>
       </c>
       <c r="E11">
-        <v>0.5089189218274655</v>
+        <v>0.22409714357984</v>
       </c>
       <c r="F11">
-        <v>8.06020267166835</v>
+        <v>6.945692305268949</v>
       </c>
       <c r="G11">
-        <v>0.0006248883987205467</v>
+        <v>0.002615163153775613</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3232964433921666</v>
+        <v>0.1878905501042851</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.0891328145299</v>
+        <v>9.408845529922132</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.261205999653555</v>
+        <v>0.1923499719273991</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.131093334901834</v>
+        <v>0.4446768717425016</v>
       </c>
       <c r="E12">
-        <v>0.5089189218274655</v>
+        <v>0.2298378581183442</v>
       </c>
       <c r="F12">
-        <v>8.06020267166835</v>
+        <v>6.963940893049084</v>
       </c>
       <c r="G12">
-        <v>0.0006248883987205467</v>
+        <v>0.00261029403629461</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3232964433921666</v>
+        <v>0.1913236488665149</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.0891328145299</v>
+        <v>9.59875412065287</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.261205999653555</v>
+        <v>0.1916748896785947</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.131093334901834</v>
+        <v>0.4424651810825821</v>
       </c>
       <c r="E13">
-        <v>0.5089189218274655</v>
+        <v>0.2286009249754244</v>
       </c>
       <c r="F13">
-        <v>8.06020267166835</v>
+        <v>6.959918312059301</v>
       </c>
       <c r="G13">
-        <v>0.0006248883987205467</v>
+        <v>0.00261133968852439</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3232964433921666</v>
+        <v>0.1905835296212928</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.0891328145299</v>
+        <v>9.557828366510989</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.261205999653555</v>
+        <v>0.189475267750538</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.131093334901834</v>
+        <v>0.435269537351985</v>
       </c>
       <c r="E14">
-        <v>0.5089189218274655</v>
+        <v>0.2245691829558325</v>
       </c>
       <c r="F14">
-        <v>8.06020267166835</v>
+        <v>6.94715210970719</v>
       </c>
       <c r="G14">
-        <v>0.0006248883987205467</v>
+        <v>0.002614761214889408</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3232964433921666</v>
+        <v>0.1881726615865489</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.0891328145299</v>
+        <v>9.424458011521608</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.261205999653555</v>
+        <v>0.1881294473117094</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.131093334901834</v>
+        <v>0.4308750254926395</v>
       </c>
       <c r="E15">
-        <v>0.5089189218274655</v>
+        <v>0.2221012503414528</v>
       </c>
       <c r="F15">
-        <v>8.06020267166835</v>
+        <v>6.939601554850753</v>
       </c>
       <c r="G15">
-        <v>0.0006248883987205467</v>
+        <v>0.002616865805180688</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3232964433921666</v>
+        <v>0.1866980806164804</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.0891328145299</v>
+        <v>9.342838473127642</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.261205999653555</v>
+        <v>0.1804402331171389</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.131093334901834</v>
+        <v>0.4058850877510167</v>
       </c>
       <c r="E16">
-        <v>0.5089189218274655</v>
+        <v>0.2079818858674685</v>
       </c>
       <c r="F16">
-        <v>8.06020267166835</v>
+        <v>6.900391728517491</v>
       </c>
       <c r="G16">
-        <v>0.0006248883987205467</v>
+        <v>0.002629062405810159</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3232964433921666</v>
+        <v>0.1782798093836675</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.0891328145299</v>
+        <v>8.876189917361899</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.261205999653555</v>
+        <v>0.1757437685213432</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.131093334901834</v>
+        <v>0.3907201265220408</v>
       </c>
       <c r="E17">
-        <v>0.5089189218274655</v>
+        <v>0.1993393018991299</v>
       </c>
       <c r="F17">
-        <v>8.06020267166835</v>
+        <v>6.8798902433102</v>
       </c>
       <c r="G17">
-        <v>0.0006248883987205467</v>
+        <v>0.00263666715974589</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3232964433921666</v>
+        <v>0.173143010780592</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.0891328145299</v>
+        <v>8.59082803399707</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.261205999653555</v>
+        <v>0.1730500541436015</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.131093334901834</v>
+        <v>0.3820558156992035</v>
       </c>
       <c r="E18">
-        <v>0.5089189218274655</v>
+        <v>0.1943747278377259</v>
       </c>
       <c r="F18">
-        <v>8.06020267166835</v>
+        <v>6.869376741131504</v>
       </c>
       <c r="G18">
-        <v>0.0006248883987205467</v>
+        <v>0.002641086689023415</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3232964433921666</v>
+        <v>0.1701982048902693</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.0891328145299</v>
+        <v>8.427010536455384</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.261205999653555</v>
+        <v>0.1721393077329054</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.131093334901834</v>
+        <v>0.3791319723541164</v>
       </c>
       <c r="E19">
-        <v>0.5089189218274655</v>
+        <v>0.1926948503139698</v>
       </c>
       <c r="F19">
-        <v>8.06020267166835</v>
+        <v>6.866034095536662</v>
       </c>
       <c r="G19">
-        <v>0.0006248883987205467</v>
+        <v>0.002642590917923293</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3232964433921666</v>
+        <v>0.1692027833804843</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.0891328145299</v>
+        <v>8.371597018793295</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.261205999653555</v>
+        <v>0.1762429317549419</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.131093334901834</v>
+        <v>0.3923283825089356</v>
       </c>
       <c r="E20">
-        <v>0.5089189218274655</v>
+        <v>0.2002586419577881</v>
       </c>
       <c r="F20">
-        <v>8.06020267166835</v>
+        <v>6.881939748187847</v>
       </c>
       <c r="G20">
-        <v>0.0006248883987205467</v>
+        <v>0.002635852924138223</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3232964433921666</v>
+        <v>0.173688814938771</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.0891328145299</v>
+        <v>8.621172238483211</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.261205999653555</v>
+        <v>0.1901210349619333</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.131093334901834</v>
+        <v>0.4373803417584838</v>
       </c>
       <c r="E21">
-        <v>0.5089189218274655</v>
+        <v>0.2257530607176506</v>
       </c>
       <c r="F21">
-        <v>8.06020267166835</v>
+        <v>6.950845611505315</v>
       </c>
       <c r="G21">
-        <v>0.0006248883987205467</v>
+        <v>0.002613754396980925</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3232964433921666</v>
+        <v>0.1888803426313217</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.0891328145299</v>
+        <v>9.46361664917157</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.261205999653555</v>
+        <v>0.199258800955846</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.131093334901834</v>
+        <v>0.4674002305033014</v>
       </c>
       <c r="E22">
-        <v>0.5089189218274655</v>
+        <v>0.2424861569064234</v>
       </c>
       <c r="F22">
-        <v>8.06020267166835</v>
+        <v>7.00785067026311</v>
       </c>
       <c r="G22">
-        <v>0.0006248883987205467</v>
+        <v>0.00259970710014204</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3232964433921666</v>
+        <v>0.1989038751040795</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.0891328145299</v>
+        <v>10.01744474609592</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.261205999653555</v>
+        <v>0.1943756022120482</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.131093334901834</v>
+        <v>0.4513224696289058</v>
       </c>
       <c r="E23">
-        <v>0.5089189218274655</v>
+        <v>0.2335481889279549</v>
       </c>
       <c r="F23">
-        <v>8.06020267166835</v>
+        <v>6.976301296694373</v>
       </c>
       <c r="G23">
-        <v>0.0006248883987205467</v>
+        <v>0.002607168706565174</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3232964433921666</v>
+        <v>0.1935450177664393</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.0891328145299</v>
+        <v>9.721537607064192</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.261205999653555</v>
+        <v>0.1760172402937314</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.131093334901834</v>
+        <v>0.3916011216998356</v>
       </c>
       <c r="E24">
-        <v>0.5089189218274655</v>
+        <v>0.1998429955024648</v>
       </c>
       <c r="F24">
-        <v>8.06020267166835</v>
+        <v>6.88100920807824</v>
       </c>
       <c r="G24">
-        <v>0.0006248883987205467</v>
+        <v>0.002636220892217716</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3232964433921666</v>
+        <v>0.1734420307779487</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.0891328145299</v>
+        <v>8.607452878152287</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.261205999653555</v>
+        <v>0.1565039960823782</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.131093334901834</v>
+        <v>0.329375736453585</v>
       </c>
       <c r="E25">
-        <v>0.5089189218274655</v>
+        <v>0.1637244480584812</v>
       </c>
       <c r="F25">
-        <v>8.06020267166835</v>
+        <v>6.826789048409353</v>
       </c>
       <c r="G25">
-        <v>0.0006248883987205467</v>
+        <v>0.002669302260871575</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3232964433921666</v>
+        <v>0.1521262273806627</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.0891328145299</v>
+        <v>7.417557657809084</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_240/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_240/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1423809062965233</v>
+        <v>0.2739087112823739</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2851467616826824</v>
+        <v>1.232445061531337</v>
       </c>
       <c r="E2">
-        <v>0.1372607365515108</v>
+        <v>0.544727614658008</v>
       </c>
       <c r="F2">
-        <v>6.825672395130994</v>
+        <v>8.833561359128822</v>
       </c>
       <c r="G2">
-        <v>0.002695213221253804</v>
+        <v>0.0006055809209207019</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1367055720989043</v>
+        <v>0.3437529027073651</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>6.549288000167593</v>
+        <v>18.25068569486993</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329604150238453</v>
+        <v>0.2375594666864345</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2560228835505711</v>
+        <v>0.9636311025109308</v>
       </c>
       <c r="E3">
-        <v>0.1193733527267895</v>
+        <v>0.4470353244881409</v>
       </c>
       <c r="F3">
-        <v>6.847732267853075</v>
+        <v>6.838979126065027</v>
       </c>
       <c r="G3">
-        <v>0.00271376776157433</v>
+        <v>0.0006586985013612186</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1264069728587884</v>
+        <v>0.2877590069831086</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>5.964698587850791</v>
+        <v>15.07121808381305</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1272503147543489</v>
+        <v>0.2158888451091627</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2385168469926953</v>
+        <v>0.8284659388354498</v>
       </c>
       <c r="E4">
-        <v>0.1084035697961028</v>
+        <v>0.3944255691811804</v>
       </c>
       <c r="F4">
-        <v>6.872095838575831</v>
+        <v>5.91231467459076</v>
       </c>
       <c r="G4">
-        <v>0.002725658888421509</v>
+        <v>0.0006880219508149836</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1201531893065777</v>
+        <v>0.2574664489061007</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>5.607343347165113</v>
+        <v>13.34722393540221</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1249420585963747</v>
+        <v>0.2071770232391685</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2314715214307626</v>
+        <v>0.7780527651333955</v>
       </c>
       <c r="E5">
-        <v>0.1039352463805727</v>
+        <v>0.3741467683913626</v>
       </c>
       <c r="F5">
-        <v>6.884682676537011</v>
+        <v>5.582090004444439</v>
       </c>
       <c r="G5">
-        <v>0.002730631112166133</v>
+        <v>0.0006995044342746207</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1176215346582268</v>
+        <v>0.2457901086521019</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>5.462076064808059</v>
+        <v>12.68099969655225</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1245599018989338</v>
+        <v>0.2057367085855759</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2303068244362976</v>
+        <v>0.7699104512873873</v>
       </c>
       <c r="E6">
-        <v>0.1031933644713874</v>
+        <v>0.3708364016745165</v>
       </c>
       <c r="F6">
-        <v>6.886931505124608</v>
+        <v>5.529604247776348</v>
       </c>
       <c r="G6">
-        <v>0.002731464418329869</v>
+        <v>0.0007013896798248629</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.117202151867545</v>
+        <v>0.2438845873629418</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>5.437975018746727</v>
+        <v>12.5721640129986</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1272191092360941</v>
+        <v>0.2157709153736249</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2384214806704961</v>
+        <v>0.8277696931796754</v>
       </c>
       <c r="E7">
-        <v>0.1083433022539495</v>
+        <v>0.3941480131497457</v>
       </c>
       <c r="F7">
-        <v>6.872254905279163</v>
+        <v>5.90769386719785</v>
       </c>
       <c r="G7">
-        <v>0.002725725431888926</v>
+        <v>0.0006881783740757541</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1201189793161603</v>
+        <v>0.2573066069104328</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>5.605382824650832</v>
+        <v>13.33811118479397</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.139117342583873</v>
+        <v>0.2612059996532423</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2750230562874947</v>
+        <v>1.131093334901891</v>
       </c>
       <c r="E8">
-        <v>0.1310895965230898</v>
+        <v>0.5089189218274441</v>
       </c>
       <c r="F8">
-        <v>6.830995242097657</v>
+        <v>8.060202671668293</v>
       </c>
       <c r="G8">
-        <v>0.002701508037627576</v>
+        <v>0.0006248883987220877</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1331397333637625</v>
+        <v>0.3232964433920671</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>6.347367134067355</v>
+        <v>17.08913281452982</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1630388474108599</v>
+        <v>0.2612059996532423</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3500705838918918</v>
+        <v>1.131093334901891</v>
       </c>
       <c r="E9">
-        <v>0.1758660676599249</v>
+        <v>0.5089189218274441</v>
       </c>
       <c r="F9">
-        <v>6.838833463057796</v>
+        <v>8.060202671668293</v>
       </c>
       <c r="G9">
-        <v>0.00265792094052208</v>
+        <v>0.0006248883987220877</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1592612256124397</v>
+        <v>0.3232964433920671</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>7.81700964078118</v>
+        <v>17.08913281452982</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1809771585331532</v>
+        <v>0.2612059996532423</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4076235896185665</v>
+        <v>1.131093334901891</v>
       </c>
       <c r="E10">
-        <v>0.2089689795170386</v>
+        <v>0.5089189218274441</v>
       </c>
       <c r="F10">
-        <v>6.902906266646369</v>
+        <v>8.060202671668293</v>
       </c>
       <c r="G10">
-        <v>0.002628200780592222</v>
+        <v>0.0006248883987220877</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1788673011249813</v>
+        <v>0.3232964433920671</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>8.908795825016455</v>
+        <v>17.08913281452982</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1892178160615998</v>
+        <v>0.2612059996532423</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4344284048614782</v>
+        <v>1.131093334901891</v>
       </c>
       <c r="E11">
-        <v>0.22409714357984</v>
+        <v>0.5089189218274441</v>
       </c>
       <c r="F11">
-        <v>6.945692305268949</v>
+        <v>8.060202671668293</v>
       </c>
       <c r="G11">
-        <v>0.002615163153775613</v>
+        <v>0.0006248883987220877</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1878905501042851</v>
+        <v>0.3232964433920671</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>9.408845529922132</v>
+        <v>17.08913281452982</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1923499719273991</v>
+        <v>0.2612059996532423</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4446768717425016</v>
+        <v>1.131093334901891</v>
       </c>
       <c r="E12">
-        <v>0.2298378581183442</v>
+        <v>0.5089189218274441</v>
       </c>
       <c r="F12">
-        <v>6.963940893049084</v>
+        <v>8.060202671668293</v>
       </c>
       <c r="G12">
-        <v>0.00261029403629461</v>
+        <v>0.0006248883987220877</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1913236488665149</v>
+        <v>0.3232964433920671</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>9.59875412065287</v>
+        <v>17.08913281452982</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1916748896785947</v>
+        <v>0.2612059996532423</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4424651810825821</v>
+        <v>1.131093334901891</v>
       </c>
       <c r="E13">
-        <v>0.2286009249754244</v>
+        <v>0.5089189218274441</v>
       </c>
       <c r="F13">
-        <v>6.959918312059301</v>
+        <v>8.060202671668293</v>
       </c>
       <c r="G13">
-        <v>0.00261133968852439</v>
+        <v>0.0006248883987220877</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1905835296212928</v>
+        <v>0.3232964433920671</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>9.557828366510989</v>
+        <v>17.08913281452982</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.189475267750538</v>
+        <v>0.2612059996532423</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.435269537351985</v>
+        <v>1.131093334901891</v>
       </c>
       <c r="E14">
-        <v>0.2245691829558325</v>
+        <v>0.5089189218274441</v>
       </c>
       <c r="F14">
-        <v>6.94715210970719</v>
+        <v>8.060202671668293</v>
       </c>
       <c r="G14">
-        <v>0.002614761214889408</v>
+        <v>0.0006248883987220877</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1881726615865489</v>
+        <v>0.3232964433920671</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>9.424458011521608</v>
+        <v>17.08913281452982</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1881294473117094</v>
+        <v>0.2612059996532423</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4308750254926395</v>
+        <v>1.131093334901891</v>
       </c>
       <c r="E15">
-        <v>0.2221012503414528</v>
+        <v>0.5089189218274441</v>
       </c>
       <c r="F15">
-        <v>6.939601554850753</v>
+        <v>8.060202671668293</v>
       </c>
       <c r="G15">
-        <v>0.002616865805180688</v>
+        <v>0.0006248883987220877</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1866980806164804</v>
+        <v>0.3232964433920671</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>9.342838473127642</v>
+        <v>17.08913281452982</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1804402331171389</v>
+        <v>0.2612059996532423</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4058850877510167</v>
+        <v>1.131093334901891</v>
       </c>
       <c r="E16">
-        <v>0.2079818858674685</v>
+        <v>0.5089189218274441</v>
       </c>
       <c r="F16">
-        <v>6.900391728517491</v>
+        <v>8.060202671668293</v>
       </c>
       <c r="G16">
-        <v>0.002629062405810159</v>
+        <v>0.0006248883987220877</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1782798093836675</v>
+        <v>0.3232964433920671</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>8.876189917361899</v>
+        <v>17.08913281452982</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1757437685213432</v>
+        <v>0.2612059996532423</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3907201265220408</v>
+        <v>1.131093334901891</v>
       </c>
       <c r="E17">
-        <v>0.1993393018991299</v>
+        <v>0.5089189218274441</v>
       </c>
       <c r="F17">
-        <v>6.8798902433102</v>
+        <v>8.060202671668293</v>
       </c>
       <c r="G17">
-        <v>0.00263666715974589</v>
+        <v>0.0006248883987220877</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.173143010780592</v>
+        <v>0.3232964433920671</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>8.59082803399707</v>
+        <v>17.08913281452982</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1730500541436015</v>
+        <v>0.2612059996532423</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3820558156992035</v>
+        <v>1.131093334901891</v>
       </c>
       <c r="E18">
-        <v>0.1943747278377259</v>
+        <v>0.5089189218274441</v>
       </c>
       <c r="F18">
-        <v>6.869376741131504</v>
+        <v>8.060202671668293</v>
       </c>
       <c r="G18">
-        <v>0.002641086689023415</v>
+        <v>0.0006248883987220877</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1701982048902693</v>
+        <v>0.3232964433920671</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>8.427010536455384</v>
+        <v>17.08913281452982</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1721393077329054</v>
+        <v>0.2612059996532423</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3791319723541164</v>
+        <v>1.131093334901891</v>
       </c>
       <c r="E19">
-        <v>0.1926948503139698</v>
+        <v>0.5089189218274441</v>
       </c>
       <c r="F19">
-        <v>6.866034095536662</v>
+        <v>8.060202671668293</v>
       </c>
       <c r="G19">
-        <v>0.002642590917923293</v>
+        <v>0.0006248883987220877</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1692027833804843</v>
+        <v>0.3232964433920671</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>8.371597018793295</v>
+        <v>17.08913281452982</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1762429317549419</v>
+        <v>0.2612059996532423</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3923283825089356</v>
+        <v>1.131093334901891</v>
       </c>
       <c r="E20">
-        <v>0.2002586419577881</v>
+        <v>0.5089189218274441</v>
       </c>
       <c r="F20">
-        <v>6.881939748187847</v>
+        <v>8.060202671668293</v>
       </c>
       <c r="G20">
-        <v>0.002635852924138223</v>
+        <v>0.0006248883987220877</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.173688814938771</v>
+        <v>0.3232964433920671</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>8.621172238483211</v>
+        <v>17.08913281452982</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1901210349619333</v>
+        <v>0.2612059996532423</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4373803417584838</v>
+        <v>1.131093334901891</v>
       </c>
       <c r="E21">
-        <v>0.2257530607176506</v>
+        <v>0.5089189218274441</v>
       </c>
       <c r="F21">
-        <v>6.950845611505315</v>
+        <v>8.060202671668293</v>
       </c>
       <c r="G21">
-        <v>0.002613754396980925</v>
+        <v>0.0006248883987220877</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1888803426313217</v>
+        <v>0.3232964433920671</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>9.46361664917157</v>
+        <v>17.08913281452982</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.199258800955846</v>
+        <v>0.2612059996532423</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4674002305033014</v>
+        <v>1.131093334901891</v>
       </c>
       <c r="E22">
-        <v>0.2424861569064234</v>
+        <v>0.5089189218274441</v>
       </c>
       <c r="F22">
-        <v>7.00785067026311</v>
+        <v>8.060202671668293</v>
       </c>
       <c r="G22">
-        <v>0.00259970710014204</v>
+        <v>0.0006248883987220877</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1989038751040795</v>
+        <v>0.3232964433920671</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>10.01744474609592</v>
+        <v>17.08913281452982</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1943756022120482</v>
+        <v>0.2612059996532423</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4513224696289058</v>
+        <v>1.131093334901891</v>
       </c>
       <c r="E23">
-        <v>0.2335481889279549</v>
+        <v>0.5089189218274441</v>
       </c>
       <c r="F23">
-        <v>6.976301296694373</v>
+        <v>8.060202671668293</v>
       </c>
       <c r="G23">
-        <v>0.002607168706565174</v>
+        <v>0.0006248883987220877</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1935450177664393</v>
+        <v>0.3232964433920671</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>9.721537607064192</v>
+        <v>17.08913281452982</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1760172402937314</v>
+        <v>0.2612059996532423</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3916011216998356</v>
+        <v>1.131093334901891</v>
       </c>
       <c r="E24">
-        <v>0.1998429955024648</v>
+        <v>0.5089189218274441</v>
       </c>
       <c r="F24">
-        <v>6.88100920807824</v>
+        <v>8.060202671668293</v>
       </c>
       <c r="G24">
-        <v>0.002636220892217716</v>
+        <v>0.0006248883987220877</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1734420307779487</v>
+        <v>0.3232964433920671</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>8.607452878152287</v>
+        <v>17.08913281452982</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1565039960823782</v>
+        <v>0.2612059996532423</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.329375736453585</v>
+        <v>1.131093334901891</v>
       </c>
       <c r="E25">
-        <v>0.1637244480584812</v>
+        <v>0.5089189218274441</v>
       </c>
       <c r="F25">
-        <v>6.826789048409353</v>
+        <v>8.060202671668293</v>
       </c>
       <c r="G25">
-        <v>0.002669302260871575</v>
+        <v>0.0006248883987220877</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1521262273806627</v>
+        <v>0.3232964433920671</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>7.417557657809084</v>
+        <v>17.08913281452982</v>
       </c>
       <c r="N25">
         <v>0</v>
